--- a/hotel_list.xlsx
+++ b/hotel_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J161"/>
+  <dimension ref="A1:J201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8805,6 +8805,2086 @@
         </is>
       </c>
     </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>경기도</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>마이다스 호텔&amp;리조트</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>https://hotels.naver.com/item?hotelFileName=hotel%3AMidas_Hotel_Resort&amp;adultCnt=2&amp;checkIn=2022-11-16&amp;checkOut=2022-11-17</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>4성급</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>144,545원</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>대한민국 경기도 가평군 청평면 북한강로 2245</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>['202___3MJ', '5__zhBq', '4__07Ou', '1__YKoA', '15__Q9Hl', '6__8fDP', '18__MnGf', '33__OCeb']</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?src=https://media.datahc.com/HI597216231.jpg&amp;type=f1128_672_hotel</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>경기도</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>클럽 인너 호텔앤리조트</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>https://hotels.naver.com/item?hotelFileName=hotel%3AClub_Inner_Hotel_Resort&amp;adultCnt=2&amp;checkIn=2022-11-16&amp;checkOut=2022-11-17</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>3성급</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>146,364원</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>대한민국 경기도 가평군 가평읍 북한강변로 382</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>['202___3MJ', '7__ReEJ', '5__zhBq', '4__07Ou', '1__YKoA', '6__8fDP', '11__l_T_', '33__OCeb']</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?src=https://media.datahc.com/HI589146076.jpg&amp;type=f1128_672_hotel</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>경기도</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>리버하임 펜션</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>https://hotels.naver.com/item?hotelFileName=hotel%3ARiverheim&amp;adultCnt=2&amp;checkIn=2022-11-16&amp;checkOut=2022-11-17</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>평점없음</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>3성급</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>92,370원</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>대한민국 경기도 가평군 청평면 북한강로 1706-118</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>['202___3MJ', '18__MnGf']</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?src=https://media.datahc.com/HI716129685.jpg&amp;type=f1128_672_hotel</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>경기도</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>아름마루 펜션</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>https://hotels.naver.com/item?hotelFileName=hotel%3AGaPyeong_Alum_Malu_Pension&amp;adultCnt=2&amp;checkIn=2022-11-16&amp;checkOut=2022-11-17</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>평점없음</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>3성급</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>50,164원</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>대한민국 경기도 가평군 상면 수목원로 262-44</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>['202___3MJ', '7__ReEJ', '6__8fDP']</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?src=https://media.datahc.com/HI733956265.jpg&amp;type=f1128_672_hotel</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>경기도</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>아쿠아비타 리조트</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>https://hotels.naver.com/item?hotelFileName=hotel%3AGapyeong_Aqua_Vita_Resort_Pension&amp;adultCnt=2&amp;checkIn=2022-11-16&amp;checkOut=2022-11-17</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>평점없음</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>등급없음</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>72,932원</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>대한민국 경기도 가평군 설악면 자잠로 282번길 72-235</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?src=https://media.datahc.com/HI728298758.jpg&amp;type=f1128_672_hotel</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>경기도</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>가평 포시즌 펜션</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>https://hotels.naver.com/item?hotelFileName=hotel%3AGa_Pyeong_Four_Season_Pension&amp;adultCnt=2&amp;checkIn=2022-11-16&amp;checkOut=2022-11-17</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>평점없음</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>3성급</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>36,957원</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>대한민국 경기도 가평군 가평읍 호반로 1660-59</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>['202___3MJ', '7__ReEJ']</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?src=https://media.datahc.com/HI731272087.jpg&amp;type=f1128_672_hotel</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>경기도</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>W지우리조트</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>https://hotels.naver.com/item?hotelFileName=hotel%3AW_Jiwoo_Resort&amp;adultCnt=2&amp;checkIn=2022-11-16&amp;checkOut=2022-11-17</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>3성급</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>115,700원</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>대한민국 경기도 가평군 가평읍 북한강변로 970-42</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>['7__ReEJ']</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?src=https://media.datahc.com/HI775690217.jpg&amp;type=f1128_672_hotel</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>경기도</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>호텔 하우스</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>https://hotels.naver.com/item?hotelFileName=hotel%3AGapyeong_Hotel_Haus&amp;adultCnt=2&amp;checkIn=2022-11-16&amp;checkOut=2022-11-17</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>평점없음</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>등급없음</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>88,582원</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>대한민국 경기도 가평군 설악면 자잠로 279</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?src=https://media.datahc.com/HI617601287.jpg&amp;type=f1128_672_hotel</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>경기도</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>하늘그리기</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>https://hotels.naver.com/item?hotelFileName=hotel%3ASky_Picture_Pension&amp;adultCnt=2&amp;checkIn=2022-11-16&amp;checkOut=2022-11-17</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>평점없음</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>등급없음</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>62,106원</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>대한민국 경기도 가평군 가평읍 용추로 587-28</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?src=https://media.datahc.com/HI771635363.jpg&amp;type=f1128_672_hotel</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>경기도</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>이뜨랜 리조트</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>https://hotels.naver.com/item?hotelFileName=hotel%3AEthren_Resort&amp;adultCnt=2&amp;checkIn=2022-11-16&amp;checkOut=2022-11-17</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>3성급</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>98,223원</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>대한민국 경기도 가평군 가평읍 북한강변로 326-128</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>['202___3MJ', '7__ReEJ']</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?src=https://media.datahc.com/HI561542031.jpg&amp;type=f1128_672_hotel</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>경기도</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>메이플인</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>https://hotels.naver.com/item?hotelFileName=hotel%3AMaple_Inn_Pension&amp;adultCnt=2&amp;checkIn=2022-11-16&amp;checkOut=2022-11-17</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>평점없음</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>등급없음</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>53,625원</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>대한민국 경기도 가평군 조종면 와곡길 101</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?src=https://media.datahc.com/HI748259619.jpg&amp;type=f1128_672_hotel</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>경기도</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>가평 더하루 풀빌라</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>https://hotels.naver.com/item?hotelFileName=hotel%3AGapyeong_The_Ha_Ru_Pool_Villa&amp;adultCnt=2&amp;checkIn=2022-11-16&amp;checkOut=2022-11-17</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>평점없음</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>등급없음</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>101,177원</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>대한민국 경기도 가평군 가평읍 달전로 96-1</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>['202___3MJ', '7__ReEJ']</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?src=https://media.datahc.com/HI779080912.jpg&amp;type=f1128_672_hotel</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>경기도</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>나르샤의정원 펜션</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>https://hotels.naver.com/item?hotelFileName=hotel%3AGapyeong_Garden_of_Narsha_Pension&amp;adultCnt=2&amp;checkIn=2022-11-16&amp;checkOut=2022-11-17</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>평점없음</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>3성급</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>39,925원</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>대한민국 경기도 가평군 상면 임초밤안골로 119-87</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>['202___3MJ', '7__ReEJ', '50__c20r']</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?src=https://media.datahc.com/HI776344256.jpg&amp;type=f1128_672_hotel</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>경기도</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>가평호텔 스위티안</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>https://hotels.naver.com/item?hotelFileName=hotel%3AGapyeong_Hotel_Suiteian&amp;adultCnt=2&amp;checkIn=2022-11-16&amp;checkOut=2022-11-17</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>7.9</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>3성급</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>177,272원</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>대한민국 경기도 가평군 설악면 자잠로 229</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>['202___3MJ', '7__ReEJ', '4__07Ou', '33__OCeb', '22__MXRs']</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?src=https://media.datahc.com/HI612061748.jpg&amp;type=f1128_672_hotel</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>경기도</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>라스블랑카스</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>https://hotels.naver.com/item?hotelFileName=hotel%3AGapyeong_Las_Blancas_Pension&amp;adultCnt=2&amp;checkIn=2022-11-16&amp;checkOut=2022-11-17</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>평점없음</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>등급없음</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>90,758원</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>대한민국 경기도 남양주 청평면 남이터길 54-12</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?src=https://media.datahc.com/HI717228927.jpg&amp;type=f1128_672_hotel</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>경기도</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>가르텐하임</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>https://hotels.naver.com/item?hotelFileName=hotel%3AGapyeong_Gartenheim_Pension&amp;adultCnt=2&amp;checkIn=2022-11-16&amp;checkOut=2022-11-17</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>평점없음</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2성급</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>33,364원</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>대한민국 경기도 가평군 북면 백둔로 549-91</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?src=https://media.datahc.com/HI779601159.jpg&amp;type=f1128_672_hotel</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>경기도</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>르푸앙</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>https://hotels.naver.com/item?hotelFileName=hotel%3ALe_Point&amp;adultCnt=2&amp;checkIn=2022-11-16&amp;checkOut=2022-11-17</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>평점없음</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2성급</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>77,248원</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>대한민국 경기도 가평군 청평면 호반로 770</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>['202___3MJ', '7__ReEJ']</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?src=https://media.datahc.com/HI549082772.jpg&amp;type=f1128_672_hotel</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>경기도</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>화야산장펜션</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>https://hotels.naver.com/item?hotelFileName=hotel%3AHwaya_Mountain_Pension&amp;adultCnt=2&amp;checkIn=2022-11-16&amp;checkOut=2022-11-17</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>평점없음</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2성급</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>66,702원</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>대한민국 경기도 가평군 설악면 다락재로118번길 269-334</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?src=https://media.datahc.com/HI584771128.jpg&amp;type=f1128_672_hotel</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>경기도</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>빨간우체통 펜션</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>https://hotels.naver.com/item?hotelFileName=hotel%3ARed_Post_Box_Pension_Gapyeong_gun&amp;adultCnt=2&amp;checkIn=2022-11-16&amp;checkOut=2022-11-17</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>평점없음</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2성급</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>70,000원</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>대한민국 경기도 가평군 청평면 강변로 101-1</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>['202___3MJ']</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?src=https://media.datahc.com/HI617457383.jpg&amp;type=f1128_672_hotel</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>경기도</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>가평</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>베토벤하우스</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>https://hotels.naver.com/item?hotelFileName=hotel%3AGapyeong_Beethoven_House_Pension&amp;adultCnt=2&amp;checkIn=2022-11-16&amp;checkOut=2022-11-17</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>평점없음</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>등급없음</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>94,455원</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>대한민국 경기도 가평군 가평읍 상지로 742</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?src=https://media.datahc.com/HI733955403.jpg&amp;type=f1128_672_hotel</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>경상도</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>경주</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>라한셀렉트 경주</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>https://hotels.naver.com/item?hotelFileName=hotel%3ALahan_Select_Gyeongju&amp;adultCnt=2&amp;checkIn=2022-11-16&amp;checkOut=2022-11-17</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>5성급</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>178,642원</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>대한민국 경상북도 경주 신평동 보문로 338</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>['202___3MJ', '7__ReEJ', '5__zhBq', '4__07Ou', '1__YKoA', '15__Q9Hl', '6__8fDP', '18__MnGf']</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?src=https://media.datahc.com/HI600854254.jpg&amp;type=f1128_672_hotel</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>경상도</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>경주</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>베스트 웨스턴 플러스 경주</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>https://hotels.naver.com/item?hotelFileName=hotel%3ABest_Western_Plus_Gyeongju&amp;adultCnt=2&amp;checkIn=2022-11-16&amp;checkOut=2022-11-17</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>평점없음</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>4성급</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>63,967원</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>대한민국 경상북도 경주 감포읍 동해안로 1819-21</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>['202___3MJ', '1__YKoA', '6__8fDP', '18__MnGf', '11__l_T_', '33__OCeb', '10__YjKh', '22__MXRs']</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?src=https://media.datahc.com/HI548184514.jpg&amp;type=f1128_672_hotel</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>경상도</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>경주</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>코모도 호텔 경주</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>https://hotels.naver.com/item?hotelFileName=hotel%3ACommodore_Hotel_Gyeongju&amp;adultCnt=2&amp;checkIn=2022-11-16&amp;checkOut=2022-11-17</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>7.6</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>4성급</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>87,529원</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>대한민국 경상북도 경주 신평동 보문로 422</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>['7__ReEJ', '5__zhBq', '1__YKoA', '6__8fDP', '18__MnGf', '2__dNcn', '11__l_T_']</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?src=https://media.datahc.com/HI775332956.jpg&amp;type=f1128_672_hotel</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>경상도</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>경주</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>경주 코오롱 호텔</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>https://hotels.naver.com/item?hotelFileName=hotel%3AGyeongju_Kolon_Hotel&amp;adultCnt=2&amp;checkIn=2022-11-16&amp;checkOut=2022-11-17</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>7.2</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>4성급</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>109,091원</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>대한민국 경상북도 경주 불국로 289-17</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>['202___3MJ', '7__ReEJ', '5__zhBq', '4__07Ou', '6__8fDP', '18__MnGf', '193__GXQD']</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?src=https://media.datahc.com/HI736215213.jpg&amp;type=f1128_672_hotel</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>경상도</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>경주</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>힐튼경주</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>https://hotels.naver.com/item?hotelFileName=hotel%3AHilton_Gyeongju&amp;adultCnt=2&amp;checkIn=2022-11-16&amp;checkOut=2022-11-17</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>7.9</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>5성급</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>227,017원</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>대한민국 경상북도 경주 신평동 보문로 484-7</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>['202___3MJ', '7__ReEJ', '5__zhBq', '4__07Ou', '1__YKoA', '15__Q9Hl', '6__8fDP', '2__dNcn']</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?src=https://media.datahc.com/HI284113056.jpg&amp;type=f1128_672_hotel</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>경상도</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>경주</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>경주로그캐빈</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>https://hotels.naver.com/item?hotelFileName=hotel%3AGyeongju_Logcabin_Pension&amp;adultCnt=2&amp;checkIn=2022-11-16&amp;checkOut=2022-11-17</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>평점없음</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2성급</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>86,627원</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>대한민국 경상북도 경주 산내면 문복로 462-12</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>['202___3MJ']</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?src=https://media.datahc.com/HI761333489.jpg&amp;type=f1128_672_hotel</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>경상도</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>경주</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>켄싱턴리조트 경주</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>https://hotels.naver.com/item?hotelFileName=hotel%3AKensington_Resort_Gyeongju&amp;adultCnt=2&amp;checkIn=2022-11-16&amp;checkOut=2022-11-17</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>6.9</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>4성급</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>83,236원</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>대한민국 경상북도 경주 북군동 보문로 182-29</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>['202___3MJ', '5__zhBq', '4__07Ou', '1__YKoA', '6__8fDP', '18__MnGf', '193__GXQD']</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?src=https://media.datahc.com/HI559613480.jpg&amp;type=f1128_672_hotel</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>경상도</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>경주</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>엘라포니시호텔</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>https://hotels.naver.com/item?hotelFileName=hotel%3AElafonisi_Hotel&amp;adultCnt=2&amp;checkIn=2022-11-16&amp;checkOut=2022-11-17</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>평점없음</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2성급</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>117,272원</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>대한민국 경상북도 경주 감포읍 동해안로 1596</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>['7__ReEJ', '5__zhBq', '22__MXRs']</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?src=https://media.datahc.com/HI740249534.jpg&amp;type=f1128_672_hotel</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>경상도</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>경주</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>베니키아 스위스로젠 호텔</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>https://hotels.naver.com/item?hotelFileName=hotel%3ABenikea_Swiss_Rosen_Hotel&amp;adultCnt=2&amp;checkIn=2022-11-16&amp;checkOut=2022-11-17</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>7.4</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>3성급</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>82,473원</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>대한민국 경상북도 경주 신평동 보문로 465-37</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>['202___3MJ', '7__ReEJ', '5__zhBq', '4__07Ou', '1__YKoA', '6__8fDP', '18__MnGf', '33__OCeb']</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?src=https://media.datahc.com/HI711498663.jpg&amp;type=f1128_672_hotel</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>경상도</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>경주</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>소노벨 경주</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>https://hotels.naver.com/item?hotelFileName=hotel%3ASono_Belle_Gyeongju&amp;adultCnt=2&amp;checkIn=2022-11-16&amp;checkOut=2022-11-17</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>7.4</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>4성급</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>104,545원</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>대한민국 경상북도 경주 신평동 보문로 402-12</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>['202___3MJ', '7__ReEJ', '5__zhBq', '4__07Ou', '6__8fDP', '18__MnGf', '22__MXRs']</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?src=https://media.datahc.com/HI617292797.jpg&amp;type=f1128_672_hotel</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>경상도</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>경주</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>경주 지지 관광호텔</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>https://hotels.naver.com/item?hotelFileName=hotel%3AGyeongju_Tourist_Hotel_GG&amp;adultCnt=2&amp;checkIn=2022-11-16&amp;checkOut=2022-11-17</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>3성급</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>90,955원</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>대한민국 경상북도 경주 태종로699번길 3</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>['202___3MJ', '4__07Ou', '1__YKoA', '6__8fDP', '18__MnGf', '11__l_T_', '193__GXQD', '33__OCeb']</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?src=https://media.datahc.com/HI597017530.jpg&amp;type=f1128_672_hotel</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>경상도</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>경주</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>더 케이 호텔 경주</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>https://hotels.naver.com/item?hotelFileName=hotel%3AThe_K_Hotel_Gyeongju&amp;adultCnt=2&amp;checkIn=2022-11-16&amp;checkOut=2022-11-17</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>7.9</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>4성급</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>86,488원</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>대한민국 경상북도 경주 신평동 엑스포로 45</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>['202___3MJ', '7__ReEJ', '5__zhBq', '4__07Ou', '1__YKoA', '6__8fDP', '18__MnGf', '11__l_T_']</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?src=https://media.datahc.com/HI604499303.jpg&amp;type=f1128_672_hotel</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>경상도</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>경주</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>스위트 호텔 경주</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>https://hotels.naver.com/item?hotelFileName=hotel%3AThe_Suites_Hotel_Gyeongju&amp;adultCnt=2&amp;checkIn=2022-11-16&amp;checkOut=2022-11-17</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>3성급</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>198,348원</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>대한민국 경상북도 경주 신평동 보문로 280-12</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>['202___3MJ', '5__zhBq', '4__07Ou', '1__YKoA', '6__8fDP', '18__MnGf', '2__dNcn', '193__GXQD']</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?src=https://media.datahc.com/HI755038951.jpg&amp;type=f1128_672_hotel</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>경상도</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>경주</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>황남관 한옥 게스트하우스</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>https://hotels.naver.com/item?hotelFileName=hotel%3AHwangnamguan_Hanok_Village&amp;adultCnt=2&amp;checkIn=2022-11-16&amp;checkOut=2022-11-17</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>7.8</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>2성급</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>73,712원</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>대한민국 경상북도 경주 포석로 1038</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>['202___3MJ', '2__dNcn']</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?src=https://media.datahc.com/HI715212744.jpg&amp;type=f1128_672_hotel</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>경상도</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>경주</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>슈가 호텔</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>https://hotels.naver.com/item?hotelFileName=hotel%3ASugar_Hotel_Gyeongju&amp;adultCnt=2&amp;checkIn=2022-11-16&amp;checkOut=2022-11-17</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>3성급</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>51,529원</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>대한민국 경상북도 경주 태종로685번길 34-1</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>['202___3MJ', '6__8fDP', '18__MnGf', '22__MXRs']</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?src=https://media.datahc.com/HI283254706.jpg&amp;type=f1128_672_hotel</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>경상도</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>경주</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>리버틴호텔 경주</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>https://hotels.naver.com/item?hotelFileName=hotel%3ARivertain_Hotel_Gyeongju&amp;adultCnt=2&amp;checkIn=2022-11-16&amp;checkOut=2022-11-17</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>평점없음</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>등급없음</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>106,568원</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>대한민국 경상북도 경주 태종로685번길 23</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?src=https://media.datahc.com/HI774763809.jpg&amp;type=f1128_672_hotel</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>경상도</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>경주</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>브라운도트 호텔 경주불국사점</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>https://hotels.naver.com/item?hotelFileName=hotel%3ABrown_Dot_Hotel_Gyeongju&amp;adultCnt=2&amp;checkIn=2022-11-16&amp;checkOut=2022-11-17</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>평점없음</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>등급없음</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>90,951원</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>대한민국 경상북도 경주 진현로 1길 4</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?src=https://media.datahc.com/HI770296875.jpg&amp;type=f1128_672_hotel</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>경상도</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>경주</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>경주 오션빌 펜션</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>https://hotels.naver.com/item?hotelFileName=hotel%3AGyeongju_Oceanville_Pension_built_in_2016&amp;adultCnt=2&amp;checkIn=2022-11-16&amp;checkOut=2022-11-17</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>평점없음</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>등급없음</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>66,818원</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>대한민국 경상북도 경주 감포읍 동해안로 1616</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?src=https://media.datahc.com/HI603691107.jpg&amp;type=f1128_672_hotel</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>경상도</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>경주</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>신라 부티크 호텔</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>https://hotels.naver.com/item?hotelFileName=hotel%3ASilla_Boutique_Hotel_Premium&amp;adultCnt=2&amp;checkIn=2022-11-16&amp;checkOut=2022-11-17</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>2성급</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>78,121원</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>대한민국 경상북도 경주 강변로 200</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>['202___3MJ', '18__MnGf', '2__dNcn']</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?src=https://media.datahc.com/HI715212710.jpg&amp;type=f1128_672_hotel</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>경상도</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>경주</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>경주 마우나오션리조트</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>https://hotels.naver.com/item?hotelFileName=hotel%3AMauna_Ocean_Resort&amp;adultCnt=2&amp;checkIn=2022-11-16&amp;checkOut=2022-11-17</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>7.4</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>4성급</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>94,318원</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>대한민국 경상북도 경주 양남면 동남로 982</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>['202___3MJ', '7__ReEJ', '5__zhBq', '4__07Ou', '6__8fDP', '50__c20r', '193__GXQD']</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>https://search.pstatic.net/common/?src=https://media.datahc.com/HI736587695.jpg&amp;type=f1128_672_hotel</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
